--- a/NFL_Data_Working/2002_off_rank.xlsx
+++ b/NFL_Data_Working/2002_off_rank.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -212,6 +212,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -539,13 +544,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -604,7 +612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -663,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -722,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -781,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -840,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -899,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -958,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1076,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1194,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1371,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1489,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1548,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1666,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1725,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1784,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1843,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1902,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1961,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2020,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2138,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2197,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2256,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2315,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2374,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2433,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
